--- a/Code/Results/Cases/Case_1_154/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_154/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.243740526332118</v>
+        <v>1.035749617779885</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01007655226900539</v>
+        <v>0.004954460565098628</v>
       </c>
       <c r="E2">
-        <v>0.6451417715601124</v>
+        <v>0.600233854077544</v>
       </c>
       <c r="F2">
-        <v>0.8547890325031915</v>
+        <v>0.5949479694702262</v>
       </c>
       <c r="G2">
-        <v>0.0007577987717844121</v>
+        <v>0.00237234260763883</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4773452142205059</v>
+        <v>0.188535276634255</v>
       </c>
       <c r="M2">
-        <v>0.3794167226818175</v>
+        <v>0.2311058523306144</v>
       </c>
       <c r="N2">
-        <v>1.494911037747158</v>
+        <v>1.788967750967686</v>
       </c>
       <c r="O2">
-        <v>2.56056695636255</v>
+        <v>1.920498940323597</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.099439347158835</v>
+        <v>0.9981439650333925</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.009013657475861692</v>
+        <v>0.004601835448667657</v>
       </c>
       <c r="E3">
-        <v>0.60465898727292</v>
+        <v>0.5881624506335044</v>
       </c>
       <c r="F3">
-        <v>0.7517428630995227</v>
+        <v>0.5725732467820848</v>
       </c>
       <c r="G3">
-        <v>0.0007627161858705029</v>
+        <v>0.002375707973692993</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.414766404811715</v>
+        <v>0.169926616804176</v>
       </c>
       <c r="M3">
-        <v>0.3318186802463003</v>
+        <v>0.2178079834787567</v>
       </c>
       <c r="N3">
-        <v>1.463723297146288</v>
+        <v>1.783896501362975</v>
       </c>
       <c r="O3">
-        <v>2.258801062856151</v>
+        <v>1.857999587130024</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.011497312201442</v>
+        <v>0.9754366158656183</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.008360163641299323</v>
+        <v>0.00438426586616103</v>
       </c>
       <c r="E4">
-        <v>0.5798320169209745</v>
+        <v>0.580783579254792</v>
       </c>
       <c r="F4">
-        <v>0.689814469209864</v>
+        <v>0.5592695690712048</v>
       </c>
       <c r="G4">
-        <v>0.0007658357396139563</v>
+        <v>0.002377886805572755</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3764409455627913</v>
+        <v>0.1585149031715645</v>
       </c>
       <c r="M4">
-        <v>0.3027380032973497</v>
+        <v>0.2097107768555304</v>
       </c>
       <c r="N4">
-        <v>1.445948730541545</v>
+        <v>1.781496194660306</v>
       </c>
       <c r="O4">
-        <v>2.077892631789268</v>
+        <v>1.8210650989393</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9758104171252455</v>
+        <v>0.966280173701108</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.008093577390440032</v>
+        <v>0.004295345443146914</v>
       </c>
       <c r="E5">
-        <v>0.5697217560799857</v>
+        <v>0.5777853708718794</v>
       </c>
       <c r="F5">
-        <v>0.6648837118983408</v>
+        <v>0.5539571654938982</v>
       </c>
       <c r="G5">
-        <v>0.0007671327560337373</v>
+        <v>0.002378803070049604</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3608417031949074</v>
+        <v>0.1538683350912748</v>
       </c>
       <c r="M5">
-        <v>0.2909189250398612</v>
+        <v>0.2064283532219378</v>
       </c>
       <c r="N5">
-        <v>1.439042812207092</v>
+        <v>1.780698286435651</v>
       </c>
       <c r="O5">
-        <v>2.005169584830554</v>
+        <v>1.806375100828774</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9698932668486009</v>
+        <v>0.9647656336550483</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008049292206521841</v>
+        <v>0.004280564822501276</v>
       </c>
       <c r="E6">
-        <v>0.5680433619544729</v>
+        <v>0.5772880615380558</v>
       </c>
       <c r="F6">
-        <v>0.6607615339432442</v>
+        <v>0.5530816165723564</v>
       </c>
       <c r="G6">
-        <v>0.0007673496972429115</v>
+        <v>0.002378956931438541</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3582524221154273</v>
+        <v>0.1530970129886668</v>
       </c>
       <c r="M6">
-        <v>0.2889581442489728</v>
+        <v>0.2058843578656919</v>
       </c>
       <c r="N6">
-        <v>1.437916230630449</v>
+        <v>1.780576704774489</v>
       </c>
       <c r="O6">
-        <v>1.993151421063715</v>
+        <v>1.80395761602847</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.011015438127913</v>
+        <v>0.9753127351802107</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008356569586460694</v>
+        <v>0.004383067694778475</v>
       </c>
       <c r="E7">
-        <v>0.5796956388963892</v>
+        <v>0.580743108388738</v>
       </c>
       <c r="F7">
-        <v>0.6894770480050312</v>
+        <v>0.559197483395721</v>
       </c>
       <c r="G7">
-        <v>0.0007658531265453429</v>
+        <v>0.002377899047685299</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.376230500677778</v>
+        <v>0.1584522222097888</v>
       </c>
       <c r="M7">
-        <v>0.3025784856035543</v>
+        <v>0.209666438790407</v>
       </c>
       <c r="N7">
-        <v>1.445854239624111</v>
+        <v>1.78148470291454</v>
       </c>
       <c r="O7">
-        <v>2.076907950564703</v>
+        <v>1.82086552383052</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.193838879913471</v>
+        <v>1.022704206908173</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009710206583950054</v>
+        <v>0.004833098492738941</v>
       </c>
       <c r="E8">
-        <v>0.6311767761867131</v>
+        <v>0.5960650399248237</v>
       </c>
       <c r="F8">
-        <v>0.8189602420894317</v>
+        <v>0.5871427951886119</v>
       </c>
       <c r="G8">
-        <v>0.0007594738417214556</v>
+        <v>0.002373479692844072</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4557439134758852</v>
+        <v>0.1821162372493603</v>
       </c>
       <c r="M8">
-        <v>0.3629718550410956</v>
+        <v>0.2265068156022991</v>
       </c>
       <c r="N8">
-        <v>1.483866968854997</v>
+        <v>1.787071595420713</v>
       </c>
       <c r="O8">
-        <v>2.455546244590664</v>
+        <v>1.898649537183246</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.558355380714261</v>
+        <v>1.118647186434487</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01236115649323111</v>
+        <v>0.005706979093552889</v>
       </c>
       <c r="E9">
-        <v>0.7324057026132635</v>
+        <v>0.6263555380765879</v>
       </c>
       <c r="F9">
-        <v>1.085079277116705</v>
+        <v>0.6454082660964957</v>
       </c>
       <c r="G9">
-        <v>0.0007477321408418269</v>
+        <v>0.002365701852242994</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6127468685699142</v>
+        <v>0.2286240124896608</v>
       </c>
       <c r="M9">
-        <v>0.4827910254053691</v>
+        <v>0.2600603300521342</v>
       </c>
       <c r="N9">
-        <v>1.56972519268362</v>
+        <v>1.803654578278397</v>
       </c>
       <c r="O9">
-        <v>3.237735680274454</v>
+        <v>2.062671894868316</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.830987332162408</v>
+        <v>1.190941165194147</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0143122919261387</v>
+        <v>0.006343488843619127</v>
       </c>
       <c r="E10">
-        <v>0.8070278528239498</v>
+        <v>0.648737228185631</v>
       </c>
       <c r="F10">
-        <v>1.290370979944001</v>
+        <v>0.6903572764116319</v>
       </c>
       <c r="G10">
-        <v>0.0007395329089237111</v>
+        <v>0.002360523523879047</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7292125222008394</v>
+        <v>0.2628472335487686</v>
       </c>
       <c r="M10">
-        <v>0.572033769276878</v>
+        <v>0.2850269892408051</v>
       </c>
       <c r="N10">
-        <v>1.640313371064721</v>
+        <v>1.819226791524514</v>
       </c>
       <c r="O10">
-        <v>3.844052535767958</v>
+        <v>2.190280014115444</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.956341761159081</v>
+        <v>1.224215733566723</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01520216849510447</v>
+        <v>0.006631799806985583</v>
       </c>
       <c r="E11">
-        <v>0.8410545987504534</v>
+        <v>0.6589424325347508</v>
       </c>
       <c r="F11">
-        <v>1.386453621927032</v>
+        <v>0.7112772889553298</v>
       </c>
       <c r="G11">
-        <v>0.0007358858529907412</v>
+        <v>0.002358282974954083</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7825503749520522</v>
+        <v>0.278426361555006</v>
       </c>
       <c r="M11">
-        <v>0.6129842647981647</v>
+        <v>0.2964518255866224</v>
       </c>
       <c r="N11">
-        <v>1.674201632644028</v>
+        <v>1.827038348155043</v>
       </c>
       <c r="O11">
-        <v>4.128566950546485</v>
+        <v>2.249895980919121</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.004026586607779</v>
+        <v>1.236871039891696</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01553961376815494</v>
+        <v>0.006740791547720448</v>
       </c>
       <c r="E12">
-        <v>0.8539537365119898</v>
+        <v>0.6628098627706365</v>
       </c>
       <c r="F12">
-        <v>1.423276699134874</v>
+        <v>0.7192675108927205</v>
       </c>
       <c r="G12">
-        <v>0.0007345158366557093</v>
+        <v>0.002357450997944413</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8028094287493275</v>
+        <v>0.2843271139732053</v>
       </c>
       <c r="M12">
-        <v>0.6285498445127686</v>
+        <v>0.3007876167408412</v>
       </c>
       <c r="N12">
-        <v>1.687302655688327</v>
+        <v>1.830100265568959</v>
       </c>
       <c r="O12">
-        <v>4.237721181475706</v>
+        <v>2.272697675539575</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.993746802390319</v>
+        <v>1.234143062031762</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01546691564573166</v>
+        <v>0.006717326580915284</v>
       </c>
       <c r="E13">
-        <v>0.8511750133537745</v>
+        <v>0.6619768190100928</v>
       </c>
       <c r="F13">
-        <v>1.415325816898786</v>
+        <v>0.7175436322683453</v>
       </c>
       <c r="G13">
-        <v>0.0007348104175483013</v>
+        <v>0.002357629447869029</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7984433926525298</v>
+        <v>0.2830562291187562</v>
       </c>
       <c r="M13">
-        <v>0.6251947867974792</v>
+        <v>0.2998534098277474</v>
       </c>
       <c r="N13">
-        <v>1.684468973182319</v>
+        <v>1.829436220558009</v>
       </c>
       <c r="O13">
-        <v>4.21414717215265</v>
+        <v>2.267776833739219</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.960260349867895</v>
+        <v>1.225255796529098</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01522992007165058</v>
+        <v>0.006640770377963179</v>
       </c>
       <c r="E14">
-        <v>0.8421155238352966</v>
+        <v>0.6592605520469945</v>
       </c>
       <c r="F14">
-        <v>1.389473977702281</v>
+        <v>0.7119332792888144</v>
       </c>
       <c r="G14">
-        <v>0.0007357729248046277</v>
+        <v>0.002358214198129135</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7842158141888262</v>
+        <v>0.2789117960616068</v>
       </c>
       <c r="M14">
-        <v>0.6142636354086548</v>
+        <v>0.29680834561605</v>
       </c>
       <c r="N14">
-        <v>1.675274009345685</v>
+        <v>1.827288177112493</v>
       </c>
       <c r="O14">
-        <v>4.137517788388664</v>
+        <v>2.251767345495921</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.939777786777597</v>
+        <v>1.219819222188789</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01508481887218949</v>
+        <v>0.006593853147379036</v>
       </c>
       <c r="E15">
-        <v>0.8365682193427233</v>
+        <v>0.6575971294145617</v>
       </c>
       <c r="F15">
-        <v>1.373697703657058</v>
+        <v>0.7085056761250996</v>
       </c>
       <c r="G15">
-        <v>0.0007363638997817112</v>
+        <v>0.002358574516976271</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7755092839539941</v>
+        <v>0.2763733688564116</v>
       </c>
       <c r="M15">
-        <v>0.6075758487863681</v>
+        <v>0.2949443800245177</v>
       </c>
       <c r="N15">
-        <v>1.669677156917729</v>
+        <v>1.825985939614355</v>
       </c>
       <c r="O15">
-        <v>4.090769443986346</v>
+        <v>2.241990593372407</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.822823968537449</v>
+        <v>1.188774326668494</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01425419396285932</v>
+        <v>0.006324621483891235</v>
       </c>
       <c r="E16">
-        <v>0.8048059381247015</v>
+        <v>0.6480707307040348</v>
       </c>
       <c r="F16">
-        <v>1.284150248893454</v>
+        <v>0.6889996397316906</v>
       </c>
       <c r="G16">
-        <v>0.0007397728467575249</v>
+        <v>0.00236067225819947</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.725734772612924</v>
+        <v>0.2618292945138023</v>
       </c>
       <c r="M16">
-        <v>0.5693653141065482</v>
+        <v>0.2842816850065617</v>
       </c>
       <c r="N16">
-        <v>1.638135524142939</v>
+        <v>1.818730863043001</v>
       </c>
       <c r="O16">
-        <v>3.825647570528929</v>
+        <v>2.186415590917363</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.751434567869921</v>
+        <v>1.16982801342175</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01374531269472357</v>
+        <v>0.006159133871989297</v>
       </c>
       <c r="E17">
-        <v>0.7853429962905096</v>
+        <v>0.6422323248454376</v>
       </c>
       <c r="F17">
-        <v>1.229940950859529</v>
+        <v>0.6771545636614889</v>
       </c>
       <c r="G17">
-        <v>0.0007418847434853053</v>
+        <v>0.002361988576272705</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6952978870890263</v>
+        <v>0.2529095458726545</v>
       </c>
       <c r="M17">
-        <v>0.5460202034491459</v>
+        <v>0.2777575564787327</v>
       </c>
       <c r="N17">
-        <v>1.61924974298114</v>
+        <v>1.81446592036994</v>
       </c>
       <c r="O17">
-        <v>3.665343884486788</v>
+        <v>2.152724155460646</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.710497167197161</v>
+        <v>1.158967132498105</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0134528243121288</v>
+        <v>0.006063833424377663</v>
       </c>
       <c r="E18">
-        <v>0.7741558599005955</v>
+        <v>0.6388764828183966</v>
       </c>
       <c r="F18">
-        <v>1.199011489607386</v>
+        <v>0.6703860420997501</v>
       </c>
       <c r="G18">
-        <v>0.0007431073014326229</v>
+        <v>0.002362756525929403</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6778243638442376</v>
+        <v>0.2477801768455379</v>
       </c>
       <c r="M18">
-        <v>0.5326254928050176</v>
+        <v>0.2740114062544023</v>
       </c>
       <c r="N18">
-        <v>1.608553624011236</v>
+        <v>1.812081377288379</v>
       </c>
       <c r="O18">
-        <v>3.573949488407152</v>
+        <v>2.133493099009286</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.696657039196907</v>
+        <v>1.155296124499046</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01335382436715449</v>
+        <v>0.006031546561697354</v>
       </c>
       <c r="E19">
-        <v>0.7703693013125275</v>
+        <v>0.6377406536921768</v>
       </c>
       <c r="F19">
-        <v>1.188580804639315</v>
+        <v>0.6681019619177135</v>
       </c>
       <c r="G19">
-        <v>0.0007435226120512664</v>
+        <v>0.002363018404640494</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6719135062277104</v>
+        <v>0.2460436468496852</v>
       </c>
       <c r="M19">
-        <v>0.5280956799862579</v>
+        <v>0.2727441229752898</v>
       </c>
       <c r="N19">
-        <v>1.604960322372321</v>
+        <v>1.811285807823609</v>
       </c>
       <c r="O19">
-        <v>3.543138931167164</v>
+        <v>2.12700706813996</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.759021099644684</v>
+        <v>1.171841105115874</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0137994616459487</v>
+        <v>0.006176762403054425</v>
       </c>
       <c r="E20">
-        <v>0.7874140750756524</v>
+        <v>0.6428536031250403</v>
       </c>
       <c r="F20">
-        <v>1.235685361906789</v>
+        <v>0.6784108891647662</v>
       </c>
       <c r="G20">
-        <v>0.0007416591219870927</v>
+        <v>0.002361847330898348</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6985344650366301</v>
+        <v>0.2538589633108188</v>
       </c>
       <c r="M20">
-        <v>0.5485018841361864</v>
+        <v>0.2784514049870879</v>
       </c>
       <c r="N20">
-        <v>1.621242847012553</v>
+        <v>1.814912842996293</v>
       </c>
       <c r="O20">
-        <v>3.682323713218977</v>
+        <v>2.156295405908565</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.970090073326048</v>
+        <v>1.22786471687391</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01529951750525171</v>
+        <v>0.006663261876660442</v>
       </c>
       <c r="E21">
-        <v>0.8447761158078464</v>
+        <v>0.6600583093543122</v>
       </c>
       <c r="F21">
-        <v>1.397054953687913</v>
+        <v>0.7135793206187344</v>
       </c>
       <c r="G21">
-        <v>0.0007354899205495186</v>
+        <v>0.002358041996548979</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7883930561059174</v>
+        <v>0.2801290841450452</v>
       </c>
       <c r="M21">
-        <v>0.617472727077498</v>
+        <v>0.2977025000931164</v>
       </c>
       <c r="N21">
-        <v>1.677967406846832</v>
+        <v>1.827916297312726</v>
       </c>
       <c r="O21">
-        <v>4.159985918643827</v>
+        <v>2.256463565877652</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.109306433412542</v>
+        <v>1.264799304281837</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01628269954010264</v>
+        <v>0.006980133762432672</v>
       </c>
       <c r="E22">
-        <v>0.8823482914648153</v>
+        <v>0.6713195079071426</v>
       </c>
       <c r="F22">
-        <v>1.505103296608439</v>
+        <v>0.7369619872945634</v>
       </c>
       <c r="G22">
-        <v>0.0007315219124242143</v>
+        <v>0.002355650954301602</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8474825806486308</v>
+        <v>0.2973054275666698</v>
       </c>
       <c r="M22">
-        <v>0.662894267232879</v>
+        <v>0.3103391975468028</v>
       </c>
       <c r="N22">
-        <v>1.716610400861981</v>
+        <v>1.837019766584262</v>
       </c>
       <c r="O22">
-        <v>4.48049924790007</v>
+        <v>2.323249553441997</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.034879298627118</v>
+        <v>1.245057610395747</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01575764875425634</v>
+        <v>0.006811114719525335</v>
       </c>
       <c r="E23">
-        <v>0.8622868313794712</v>
+        <v>0.6653077974058803</v>
       </c>
       <c r="F23">
-        <v>1.44718130451912</v>
+        <v>0.7244456880648329</v>
       </c>
       <c r="G23">
-        <v>0.0007336341690274144</v>
+        <v>0.002356918344503319</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8159088075488512</v>
+        <v>0.2881375141423064</v>
       </c>
       <c r="M23">
-        <v>0.6386176527202707</v>
+        <v>0.3035897999320269</v>
       </c>
       <c r="N23">
-        <v>1.695837814594796</v>
+        <v>1.832105978131665</v>
       </c>
       <c r="O23">
-        <v>4.308614641132237</v>
+        <v>2.287483418752174</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.75559090239588</v>
+        <v>1.170930887844179</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01377498068402261</v>
+        <v>0.006168793039986298</v>
       </c>
       <c r="E24">
-        <v>0.7864777331501145</v>
+        <v>0.6425727208941723</v>
       </c>
       <c r="F24">
-        <v>1.233087581821579</v>
+        <v>0.6778427755620271</v>
       </c>
       <c r="G24">
-        <v>0.0007417610992111406</v>
+        <v>0.002361911153171934</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6970711308603654</v>
+        <v>0.2534297356743309</v>
       </c>
       <c r="M24">
-        <v>0.5473798336919984</v>
+        <v>0.2781377015482533</v>
       </c>
       <c r="N24">
-        <v>1.620341262381118</v>
+        <v>1.814710579178609</v>
       </c>
       <c r="O24">
-        <v>3.674644757932811</v>
+        <v>2.154680411937875</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.458986341827199</v>
+        <v>1.092373036584348</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01164384571517729</v>
+        <v>0.00547152308983101</v>
       </c>
       <c r="E25">
-        <v>0.7049838819924688</v>
+        <v>0.6181372506418228</v>
       </c>
       <c r="F25">
-        <v>1.011550435066411</v>
+        <v>0.6292719677446854</v>
       </c>
       <c r="G25">
-        <v>0.0007508304011874359</v>
+        <v>0.002367711425439345</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5701129160560896</v>
+        <v>0.2160323292169721</v>
       </c>
       <c r="M25">
-        <v>0.4501920606225269</v>
+        <v>0.2509273445481668</v>
       </c>
       <c r="N25">
-        <v>1.545226327439195</v>
+        <v>1.798570372149001</v>
       </c>
       <c r="O25">
-        <v>3.021150329771302</v>
+        <v>2.017059542957782</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_154/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_154/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.035749617779885</v>
+        <v>1.243740526332147</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.004954460565098628</v>
+        <v>0.0100765522690125</v>
       </c>
       <c r="E2">
-        <v>0.600233854077544</v>
+        <v>0.6451417715601409</v>
       </c>
       <c r="F2">
-        <v>0.5949479694702262</v>
+        <v>0.8547890325031773</v>
       </c>
       <c r="G2">
-        <v>0.00237234260763883</v>
+        <v>0.0007577987717529773</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.188535276634255</v>
+        <v>0.4773452142203354</v>
       </c>
       <c r="M2">
-        <v>0.2311058523306144</v>
+        <v>0.3794167226818175</v>
       </c>
       <c r="N2">
-        <v>1.788967750967686</v>
+        <v>1.494911037747087</v>
       </c>
       <c r="O2">
-        <v>1.920498940323597</v>
+        <v>2.56056695636255</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9981439650333925</v>
+        <v>1.099439347158722</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004601835448667657</v>
+        <v>0.009013657475740899</v>
       </c>
       <c r="E3">
-        <v>0.5881624506335044</v>
+        <v>0.6046589872729413</v>
       </c>
       <c r="F3">
-        <v>0.5725732467820848</v>
+        <v>0.7517428630995227</v>
       </c>
       <c r="G3">
-        <v>0.002375707973692993</v>
+        <v>0.0007627161858697827</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.169926616804176</v>
+        <v>0.4147664048116155</v>
       </c>
       <c r="M3">
-        <v>0.2178079834787567</v>
+        <v>0.3318186802463146</v>
       </c>
       <c r="N3">
-        <v>1.783896501362975</v>
+        <v>1.463723297146302</v>
       </c>
       <c r="O3">
-        <v>1.857999587130024</v>
+        <v>2.258801062856094</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9754366158656183</v>
+        <v>1.0114973122013</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00438426586616103</v>
+        <v>0.008360163641299323</v>
       </c>
       <c r="E4">
-        <v>0.580783579254792</v>
+        <v>0.5798320169209887</v>
       </c>
       <c r="F4">
-        <v>0.5592695690712048</v>
+        <v>0.6898144692098498</v>
       </c>
       <c r="G4">
-        <v>0.002377886805572755</v>
+        <v>0.0007658357396138316</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1585149031715645</v>
+        <v>0.3764409455628339</v>
       </c>
       <c r="M4">
-        <v>0.2097107768555304</v>
+        <v>0.3027380032973568</v>
       </c>
       <c r="N4">
-        <v>1.781496194660306</v>
+        <v>1.445948730541531</v>
       </c>
       <c r="O4">
-        <v>1.8210650989393</v>
+        <v>2.07789263178924</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.966280173701108</v>
+        <v>0.9758104171253024</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004295345443146914</v>
+        <v>0.008093577390333451</v>
       </c>
       <c r="E5">
-        <v>0.5777853708718794</v>
+        <v>0.5697217560800283</v>
       </c>
       <c r="F5">
-        <v>0.5539571654938982</v>
+        <v>0.6648837118983408</v>
       </c>
       <c r="G5">
-        <v>0.002378803070049604</v>
+        <v>0.0007671327560345048</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1538683350912748</v>
+        <v>0.3608417031947369</v>
       </c>
       <c r="M5">
-        <v>0.2064283532219378</v>
+        <v>0.2909189250398754</v>
       </c>
       <c r="N5">
-        <v>1.780698286435651</v>
+        <v>1.439042812207035</v>
       </c>
       <c r="O5">
-        <v>1.806375100828774</v>
+        <v>2.005169584830554</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9647656336550483</v>
+        <v>0.969893266848743</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004280564822501276</v>
+        <v>0.008049292206525394</v>
       </c>
       <c r="E6">
-        <v>0.5772880615380558</v>
+        <v>0.5680433619544729</v>
       </c>
       <c r="F6">
-        <v>0.5530816165723564</v>
+        <v>0.6607615339432442</v>
       </c>
       <c r="G6">
-        <v>0.002378956931438541</v>
+        <v>0.0007673496972706107</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1530970129886668</v>
+        <v>0.3582524221154557</v>
       </c>
       <c r="M6">
-        <v>0.2058843578656919</v>
+        <v>0.2889581442489444</v>
       </c>
       <c r="N6">
-        <v>1.780576704774489</v>
+        <v>1.437916230630435</v>
       </c>
       <c r="O6">
-        <v>1.80395761602847</v>
+        <v>1.993151421063686</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9753127351802107</v>
+        <v>1.011015438127998</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004383067694778475</v>
+        <v>0.008356569586347007</v>
       </c>
       <c r="E7">
-        <v>0.580743108388738</v>
+        <v>0.5796956388964176</v>
       </c>
       <c r="F7">
-        <v>0.559197483395721</v>
+        <v>0.6894770480050312</v>
       </c>
       <c r="G7">
-        <v>0.002377899047685299</v>
+        <v>0.000765853126572854</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1584522222097888</v>
+        <v>0.3762305006777922</v>
       </c>
       <c r="M7">
-        <v>0.209666438790407</v>
+        <v>0.3025784856035614</v>
       </c>
       <c r="N7">
-        <v>1.78148470291454</v>
+        <v>1.445854239624111</v>
       </c>
       <c r="O7">
-        <v>1.82086552383052</v>
+        <v>2.076907950564788</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.022704206908173</v>
+        <v>1.193838879913443</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004833098492738941</v>
+        <v>0.009710206583825709</v>
       </c>
       <c r="E8">
-        <v>0.5960650399248237</v>
+        <v>0.6311767761866989</v>
       </c>
       <c r="F8">
-        <v>0.5871427951886119</v>
+        <v>0.8189602420894317</v>
       </c>
       <c r="G8">
-        <v>0.002373479692844072</v>
+        <v>0.0007594738416905019</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1821162372493603</v>
+        <v>0.4557439134758425</v>
       </c>
       <c r="M8">
-        <v>0.2265068156022991</v>
+        <v>0.3629718550410956</v>
       </c>
       <c r="N8">
-        <v>1.787071595420713</v>
+        <v>1.483866968854997</v>
       </c>
       <c r="O8">
-        <v>1.898649537183246</v>
+        <v>2.455546244590664</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.118647186434487</v>
+        <v>1.558355380714374</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005706979093552889</v>
+        <v>0.01236115649333769</v>
       </c>
       <c r="E9">
-        <v>0.6263555380765879</v>
+        <v>0.7324057026132138</v>
       </c>
       <c r="F9">
-        <v>0.6454082660964957</v>
+        <v>1.085079277116705</v>
       </c>
       <c r="G9">
-        <v>0.002365701852242994</v>
+        <v>0.0007477321408481739</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2286240124896608</v>
+        <v>0.6127468685697437</v>
       </c>
       <c r="M9">
-        <v>0.2600603300521342</v>
+        <v>0.4827910254053762</v>
       </c>
       <c r="N9">
-        <v>1.803654578278397</v>
+        <v>1.56972519268362</v>
       </c>
       <c r="O9">
-        <v>2.062671894868316</v>
+        <v>3.237735680274454</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.190941165194147</v>
+        <v>1.830987332162408</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.006343488843619127</v>
+        <v>0.01431229192602501</v>
       </c>
       <c r="E10">
-        <v>0.648737228185631</v>
+        <v>0.8070278528239569</v>
       </c>
       <c r="F10">
-        <v>0.6903572764116319</v>
+        <v>1.290370979944001</v>
       </c>
       <c r="G10">
-        <v>0.002360523523879047</v>
+        <v>0.0007395329089230351</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2628472335487686</v>
+        <v>0.7292125222007826</v>
       </c>
       <c r="M10">
-        <v>0.2850269892408051</v>
+        <v>0.5720337692768851</v>
       </c>
       <c r="N10">
-        <v>1.819226791524514</v>
+        <v>1.640313371064707</v>
       </c>
       <c r="O10">
-        <v>2.190280014115444</v>
+        <v>3.844052535767958</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.224215733566723</v>
+        <v>1.956341761159138</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.006631799806985583</v>
+        <v>0.01520216849513645</v>
       </c>
       <c r="E11">
-        <v>0.6589424325347508</v>
+        <v>0.8410545987504747</v>
       </c>
       <c r="F11">
-        <v>0.7112772889553298</v>
+        <v>1.386453621927046</v>
       </c>
       <c r="G11">
-        <v>0.002358282974954083</v>
+        <v>0.0007358858530471285</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.278426361555006</v>
+        <v>0.7825503749520522</v>
       </c>
       <c r="M11">
-        <v>0.2964518255866224</v>
+        <v>0.612984264798186</v>
       </c>
       <c r="N11">
-        <v>1.827038348155043</v>
+        <v>1.674201632643957</v>
       </c>
       <c r="O11">
-        <v>2.249895980919121</v>
+        <v>4.128566950546485</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.236871039891696</v>
+        <v>2.004026586607949</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.006740791547720448</v>
+        <v>0.0155396137680377</v>
       </c>
       <c r="E12">
-        <v>0.6628098627706365</v>
+        <v>0.8539537365119543</v>
       </c>
       <c r="F12">
-        <v>0.7192675108927205</v>
+        <v>1.42327669913486</v>
       </c>
       <c r="G12">
-        <v>0.002357450997944413</v>
+        <v>0.0007345158366837222</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2843271139732053</v>
+        <v>0.8028094287492138</v>
       </c>
       <c r="M12">
-        <v>0.3007876167408412</v>
+        <v>0.6285498445127757</v>
       </c>
       <c r="N12">
-        <v>1.830100265568959</v>
+        <v>1.687302655688399</v>
       </c>
       <c r="O12">
-        <v>2.272697675539575</v>
+        <v>4.237721181475649</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.234143062031762</v>
+        <v>1.993746802390149</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.006717326580915284</v>
+        <v>0.01546691564561797</v>
       </c>
       <c r="E13">
-        <v>0.6619768190100928</v>
+        <v>0.8511750133537959</v>
       </c>
       <c r="F13">
-        <v>0.7175436322683453</v>
+        <v>1.415325816898786</v>
       </c>
       <c r="G13">
-        <v>0.002357629447869029</v>
+        <v>0.0007348104175201782</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2830562291187562</v>
+        <v>0.7984433926525867</v>
       </c>
       <c r="M13">
-        <v>0.2998534098277474</v>
+        <v>0.6251947867975005</v>
       </c>
       <c r="N13">
-        <v>1.829436220558009</v>
+        <v>1.684468973182305</v>
       </c>
       <c r="O13">
-        <v>2.267776833739219</v>
+        <v>4.21414717215265</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.225255796529098</v>
+        <v>1.960260349867895</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.006640770377963179</v>
+        <v>0.01522992007146229</v>
       </c>
       <c r="E14">
-        <v>0.6592605520469945</v>
+        <v>0.8421155238352824</v>
       </c>
       <c r="F14">
-        <v>0.7119332792888144</v>
+        <v>1.389473977702252</v>
       </c>
       <c r="G14">
-        <v>0.002358214198129135</v>
+        <v>0.0007357729248046277</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2789117960616068</v>
+        <v>0.7842158141888831</v>
       </c>
       <c r="M14">
-        <v>0.29680834561605</v>
+        <v>0.6142636354086548</v>
       </c>
       <c r="N14">
-        <v>1.827288177112493</v>
+        <v>1.675274009345671</v>
       </c>
       <c r="O14">
-        <v>2.251767345495921</v>
+        <v>4.13751778838872</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.219819222188789</v>
+        <v>1.939777786777597</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.006593853147379036</v>
+        <v>0.01508481887226765</v>
       </c>
       <c r="E15">
-        <v>0.6575971294145617</v>
+        <v>0.8365682193427801</v>
       </c>
       <c r="F15">
-        <v>0.7085056761250996</v>
+        <v>1.373697703657044</v>
       </c>
       <c r="G15">
-        <v>0.002358574516976271</v>
+        <v>0.0007363638997259483</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2763733688564116</v>
+        <v>0.7755092839538804</v>
       </c>
       <c r="M15">
-        <v>0.2949443800245177</v>
+        <v>0.6075758487863681</v>
       </c>
       <c r="N15">
-        <v>1.825985939614355</v>
+        <v>1.669677156917729</v>
       </c>
       <c r="O15">
-        <v>2.241990593372407</v>
+        <v>4.090769443986403</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.188774326668494</v>
+        <v>1.822823968537818</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.006324621483891235</v>
+        <v>0.01425419396300498</v>
       </c>
       <c r="E16">
-        <v>0.6480707307040348</v>
+        <v>0.8048059381247441</v>
       </c>
       <c r="F16">
-        <v>0.6889996397316906</v>
+        <v>1.284150248893454</v>
       </c>
       <c r="G16">
-        <v>0.00236067225819947</v>
+        <v>0.0007397728468229494</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2618292945138023</v>
+        <v>0.7257347726127819</v>
       </c>
       <c r="M16">
-        <v>0.2842816850065617</v>
+        <v>0.5693653141065482</v>
       </c>
       <c r="N16">
-        <v>1.818730863043001</v>
+        <v>1.638135524142925</v>
       </c>
       <c r="O16">
-        <v>2.186415590917363</v>
+        <v>3.825647570528872</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.16982801342175</v>
+        <v>1.751434567869779</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.006159133871989297</v>
+        <v>0.01374531269461698</v>
       </c>
       <c r="E17">
-        <v>0.6422323248454376</v>
+        <v>0.7853429962905096</v>
       </c>
       <c r="F17">
-        <v>0.6771545636614889</v>
+        <v>1.229940950859515</v>
       </c>
       <c r="G17">
-        <v>0.002361988576272705</v>
+        <v>0.0007418847435130609</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2529095458726545</v>
+        <v>0.6952978870890263</v>
       </c>
       <c r="M17">
-        <v>0.2777575564787327</v>
+        <v>0.5460202034491388</v>
       </c>
       <c r="N17">
-        <v>1.81446592036994</v>
+        <v>1.619249742981111</v>
       </c>
       <c r="O17">
-        <v>2.152724155460646</v>
+        <v>3.665343884486788</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.158967132498105</v>
+        <v>1.71049716719719</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.006063833424377663</v>
+        <v>0.01345282431231709</v>
       </c>
       <c r="E18">
-        <v>0.6388764828183966</v>
+        <v>0.7741558599005884</v>
       </c>
       <c r="F18">
-        <v>0.6703860420997501</v>
+        <v>1.199011489607386</v>
       </c>
       <c r="G18">
-        <v>0.002362756525929403</v>
+        <v>0.0007431073013588603</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2477801768455379</v>
+        <v>0.6778243638443229</v>
       </c>
       <c r="M18">
-        <v>0.2740114062544023</v>
+        <v>0.5326254928049963</v>
       </c>
       <c r="N18">
-        <v>1.812081377288379</v>
+        <v>1.608553624011279</v>
       </c>
       <c r="O18">
-        <v>2.133493099009286</v>
+        <v>3.573949488407152</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.155296124499046</v>
+        <v>1.696657039196992</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.006031546561697354</v>
+        <v>0.01335382436727528</v>
       </c>
       <c r="E19">
-        <v>0.6377406536921768</v>
+        <v>0.7703693013125203</v>
       </c>
       <c r="F19">
-        <v>0.6681019619177135</v>
+        <v>1.188580804639301</v>
       </c>
       <c r="G19">
-        <v>0.002363018404640494</v>
+        <v>0.0007435226120604612</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2460436468496852</v>
+        <v>0.6719135062277246</v>
       </c>
       <c r="M19">
-        <v>0.2727441229752898</v>
+        <v>0.5280956799862579</v>
       </c>
       <c r="N19">
-        <v>1.811285807823609</v>
+        <v>1.604960322372335</v>
       </c>
       <c r="O19">
-        <v>2.12700706813996</v>
+        <v>3.543138931167107</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.171841105115874</v>
+        <v>1.759021099644713</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.006176762403054425</v>
+        <v>0.01379946164583501</v>
       </c>
       <c r="E20">
-        <v>0.6428536031250403</v>
+        <v>0.7874140750756595</v>
       </c>
       <c r="F20">
-        <v>0.6784108891647662</v>
+        <v>1.235685361906775</v>
       </c>
       <c r="G20">
-        <v>0.002361847330898348</v>
+        <v>0.0007416591219867309</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2538589633108188</v>
+        <v>0.6985344650366869</v>
       </c>
       <c r="M20">
-        <v>0.2784514049870879</v>
+        <v>0.5485018841361935</v>
       </c>
       <c r="N20">
-        <v>1.814912842996293</v>
+        <v>1.621242847012539</v>
       </c>
       <c r="O20">
-        <v>2.156295405908565</v>
+        <v>3.682323713219034</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.22786471687391</v>
+        <v>1.970090073325764</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.006663261876660442</v>
+        <v>0.01529951750514158</v>
       </c>
       <c r="E21">
-        <v>0.6600583093543122</v>
+        <v>0.844776115807818</v>
       </c>
       <c r="F21">
-        <v>0.7135793206187344</v>
+        <v>1.397054953687913</v>
       </c>
       <c r="G21">
-        <v>0.002358041996548979</v>
+        <v>0.0007354899206281953</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2801290841450452</v>
+        <v>0.7883930561059458</v>
       </c>
       <c r="M21">
-        <v>0.2977025000931164</v>
+        <v>0.6174727270774838</v>
       </c>
       <c r="N21">
-        <v>1.827916297312726</v>
+        <v>1.677967406846903</v>
       </c>
       <c r="O21">
-        <v>2.256463565877652</v>
+        <v>4.159985918643827</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.264799304281837</v>
+        <v>2.109306433412542</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.006980133762432672</v>
+        <v>0.01628269954021633</v>
       </c>
       <c r="E22">
-        <v>0.6713195079071426</v>
+        <v>0.8823482914648153</v>
       </c>
       <c r="F22">
-        <v>0.7369619872945634</v>
+        <v>1.505103296608439</v>
       </c>
       <c r="G22">
-        <v>0.002355650954301602</v>
+        <v>0.0007315219124116083</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2973054275666698</v>
+        <v>0.8474825806485455</v>
       </c>
       <c r="M22">
-        <v>0.3103391975468028</v>
+        <v>0.6628942672328719</v>
       </c>
       <c r="N22">
-        <v>1.837019766584262</v>
+        <v>1.716610400861981</v>
       </c>
       <c r="O22">
-        <v>2.323249553441997</v>
+        <v>4.480499247899957</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.245057610395747</v>
+        <v>2.034879298627061</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.006811114719525335</v>
+        <v>0.01575764875406094</v>
       </c>
       <c r="E23">
-        <v>0.6653077974058803</v>
+        <v>0.8622868313794712</v>
       </c>
       <c r="F23">
-        <v>0.7244456880648329</v>
+        <v>1.447181304519134</v>
       </c>
       <c r="G23">
-        <v>0.002356918344503319</v>
+        <v>0.0007336341689870851</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2881375141423064</v>
+        <v>0.8159088075488796</v>
       </c>
       <c r="M23">
-        <v>0.3035897999320269</v>
+        <v>0.638617652720292</v>
       </c>
       <c r="N23">
-        <v>1.832105978131665</v>
+        <v>1.695837814594782</v>
       </c>
       <c r="O23">
-        <v>2.287483418752174</v>
+        <v>4.308614641132181</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.170930887844179</v>
+        <v>1.755590902395852</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.006168793039986298</v>
+        <v>0.01377498068402261</v>
       </c>
       <c r="E24">
-        <v>0.6425727208941723</v>
+        <v>0.7864777331500861</v>
       </c>
       <c r="F24">
-        <v>0.6778427755620271</v>
+        <v>1.233087581821593</v>
       </c>
       <c r="G24">
-        <v>0.002361911153171934</v>
+        <v>0.0007417610992392648</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2534297356743309</v>
+        <v>0.697071130860337</v>
       </c>
       <c r="M24">
-        <v>0.2781377015482533</v>
+        <v>0.5473798336919913</v>
       </c>
       <c r="N24">
-        <v>1.814710579178609</v>
+        <v>1.620341262381174</v>
       </c>
       <c r="O24">
-        <v>2.154680411937875</v>
+        <v>3.674644757932754</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.092373036584348</v>
+        <v>1.458986341827057</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.00547152308983101</v>
+        <v>0.01164384571536559</v>
       </c>
       <c r="E25">
-        <v>0.6181372506418228</v>
+        <v>0.7049838819924545</v>
       </c>
       <c r="F25">
-        <v>0.6292719677446854</v>
+        <v>1.011550435066411</v>
       </c>
       <c r="G25">
-        <v>0.002367711425439345</v>
+        <v>0.0007508304012218137</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2160323292169721</v>
+        <v>0.5701129160560896</v>
       </c>
       <c r="M25">
-        <v>0.2509273445481668</v>
+        <v>0.450192060622534</v>
       </c>
       <c r="N25">
-        <v>1.798570372149001</v>
+        <v>1.54522632743921</v>
       </c>
       <c r="O25">
-        <v>2.017059542957782</v>
+        <v>3.021150329771189</v>
       </c>
     </row>
   </sheetData>
